--- a/data.xlsx
+++ b/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1029,6 +1029,138 @@
       </c>
       <c r="G18" t="inlineStr"/>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Praveen</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Masters</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>praveen@gmail.com</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8798569826</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>pravven</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ram</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>M.Sc</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ram@gmail.com</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>988765487</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>78945</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Mani</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>M.Sc</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>praveen@gmail.com</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>78932145610</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>mani@44</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Subramanian S</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>M. Sc</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>subramanian160104@gmail.com</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8072744511</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>123mani</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
